--- a/Library/Domain_Bits.xlsx
+++ b/Library/Domain_Bits.xlsx
@@ -22,9 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">ACTCactagtcctcgaaaacctcgtggTGTCCTACTATGTCTTCTCTCTTCTACTACTTACCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">ACTCctccaatcaaatcagtcactaggGGATGGATGATCCCACACCTCACACGCAGGAGAGAA</t>
@@ -364,10 +367,10 @@
   <dimension ref="A1:B309"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="76"/>
   </cols>
@@ -376,80 +379,83 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1079,26 +1085,26 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1321,25 +1327,25 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
